--- a/data/combined data/combined data - 1 cleaning/cleaning step 2 - career/2.3 joborglink/joborglink_6_1_inorgtree_right_tocode_1_jeongsu.xlsx
+++ b/data/combined data/combined data - 1 cleaning/cleaning step 2 - career/2.3 joborglink/joborglink_6_1_inorgtree_right_tocode_1_jeongsu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seoul\Dropbox\00 technical\github\nkelites\data\combined data\combined data - 1 cleaning\cleaning step 2 - career\2.3 joborglink\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A3B9761-F413-4B8E-A1F5-C1421F473FA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B334043E-B69B-4A24-B466-04BB075AD923}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1140" windowWidth="19200" windowHeight="9440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4989" uniqueCount="1072">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4985" uniqueCount="1071">
   <si>
     <t>OrgString</t>
   </si>
@@ -2939,9 +2939,6 @@
   </si>
   <si>
     <t>당중앙위원회_정치국_정치국상무위원회</t>
-  </si>
-  <si>
-    <t>nan</t>
   </si>
   <si>
     <t>당중앙위원회_나선시당위원회</t>
@@ -3677,7 +3674,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A834" sqref="A834"/>
+      <selection pane="bottomRight" activeCell="L282" sqref="L282"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3687,8 +3684,7 @@
     <col min="3" max="3" width="8.90625" style="11" customWidth="1"/>
     <col min="4" max="4" width="9.1796875" style="6" customWidth="1"/>
     <col min="5" max="5" width="9.54296875" style="6" customWidth="1"/>
-    <col min="6" max="6" width="12.81640625" style="6" customWidth="1"/>
-    <col min="7" max="7" width="20.26953125" style="6" customWidth="1"/>
+    <col min="6" max="7" width="15.08984375" style="6" customWidth="1"/>
     <col min="8" max="8" width="14.90625" style="8" customWidth="1"/>
     <col min="9" max="9" width="30.08984375" style="8" customWidth="1"/>
     <col min="10" max="10" width="13.453125" style="4" customWidth="1"/>
@@ -3706,7 +3702,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>2</v>
@@ -3727,16 +3723,16 @@
         <v>956</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L1" s="7" t="s">
+        <v>1068</v>
+      </c>
+      <c r="M1" s="8" t="s">
         <v>1069</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>1070</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>7</v>
@@ -3755,12 +3751,6 @@
       <c r="G2" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="H2" s="8" t="s">
-        <v>914</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>914</v>
-      </c>
       <c r="J2" s="4" t="s">
         <v>11</v>
       </c>
@@ -4539,7 +4529,7 @@
         <v>490</v>
       </c>
       <c r="I41" s="8" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="J41" s="4" t="s">
         <v>11</v>
@@ -4565,7 +4555,7 @@
         <v>490</v>
       </c>
       <c r="I42" s="8" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="J42" s="4" t="s">
         <v>11</v>
@@ -4591,7 +4581,7 @@
         <v>490</v>
       </c>
       <c r="I43" s="8" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="J43" s="4" t="s">
         <v>11</v>
@@ -4617,7 +4607,7 @@
         <v>490</v>
       </c>
       <c r="I44" s="8" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="J44" s="4" t="s">
         <v>11</v>
@@ -4643,7 +4633,7 @@
         <v>490</v>
       </c>
       <c r="I45" s="8" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="J45" s="4" t="s">
         <v>11</v>
@@ -4669,7 +4659,7 @@
         <v>490</v>
       </c>
       <c r="I46" s="8" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="J46" s="4" t="s">
         <v>11</v>
@@ -4695,7 +4685,7 @@
         <v>490</v>
       </c>
       <c r="I47" s="8" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="J47" s="4" t="s">
         <v>11</v>
@@ -4741,7 +4731,7 @@
         <v>490</v>
       </c>
       <c r="I49" s="8" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="J49" s="4" t="s">
         <v>11</v>
@@ -4767,7 +4757,7 @@
         <v>490</v>
       </c>
       <c r="I50" s="8" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="J50" s="4" t="s">
         <v>11</v>
@@ -4793,7 +4783,7 @@
         <v>490</v>
       </c>
       <c r="I51" s="8" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="J51" s="4" t="s">
         <v>11</v>
@@ -4813,13 +4803,13 @@
         <v>490</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="H52" s="8" t="s">
         <v>490</v>
       </c>
       <c r="I52" s="8" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="J52" s="4" t="s">
         <v>11</v>
@@ -4845,7 +4835,7 @@
         <v>490</v>
       </c>
       <c r="I53" s="8" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="J53" s="4" t="s">
         <v>11</v>
@@ -4871,7 +4861,7 @@
         <v>490</v>
       </c>
       <c r="I54" s="8" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="J54" s="4" t="s">
         <v>11</v>
@@ -4900,7 +4890,7 @@
         <v>490</v>
       </c>
       <c r="I55" s="8" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="J55" s="4" t="s">
         <v>11</v>
@@ -4926,7 +4916,7 @@
         <v>490</v>
       </c>
       <c r="I56" s="8" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="J56" s="4" t="s">
         <v>11</v>
@@ -4952,7 +4942,7 @@
         <v>490</v>
       </c>
       <c r="I57" s="8" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="J57" s="4" t="s">
         <v>11</v>
@@ -4978,7 +4968,7 @@
         <v>490</v>
       </c>
       <c r="I58" s="10" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="J58" s="4" t="s">
         <v>11</v>
@@ -5025,7 +5015,7 @@
         <v>490</v>
       </c>
       <c r="I60" s="10" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="J60" s="4" t="s">
         <v>11</v>
@@ -5151,7 +5141,7 @@
         <v>490</v>
       </c>
       <c r="I66" s="8" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="J66" s="4" t="s">
         <v>11</v>
@@ -5197,7 +5187,7 @@
         <v>490</v>
       </c>
       <c r="I68" s="8" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="J68" s="4" t="s">
         <v>11</v>
@@ -5226,7 +5216,7 @@
         <v>490</v>
       </c>
       <c r="I69" s="8" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="J69" s="4" t="s">
         <v>11</v>
@@ -5252,7 +5242,7 @@
         <v>490</v>
       </c>
       <c r="I70" s="8" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="J70" s="4" t="s">
         <v>11</v>
@@ -5338,7 +5328,7 @@
         <v>490</v>
       </c>
       <c r="I74" s="8" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="J74" s="4" t="s">
         <v>11</v>
@@ -5364,7 +5354,7 @@
         <v>490</v>
       </c>
       <c r="I75" s="8" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="J75" s="4" t="s">
         <v>11</v>
@@ -5390,7 +5380,7 @@
         <v>490</v>
       </c>
       <c r="I76" s="8" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="J76" s="4" t="s">
         <v>11</v>
@@ -5416,7 +5406,7 @@
         <v>490</v>
       </c>
       <c r="I77" s="8" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="J77" s="4" t="s">
         <v>11</v>
@@ -5442,7 +5432,7 @@
         <v>490</v>
       </c>
       <c r="I78" s="8" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="J78" s="4" t="s">
         <v>11</v>
@@ -5468,7 +5458,7 @@
         <v>490</v>
       </c>
       <c r="I79" s="8" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="J79" s="4" t="s">
         <v>11</v>
@@ -5494,7 +5484,7 @@
         <v>490</v>
       </c>
       <c r="I80" s="8" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="J80" s="4" t="s">
         <v>11</v>
@@ -5520,7 +5510,7 @@
         <v>490</v>
       </c>
       <c r="I81" s="8" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="J81" s="4" t="s">
         <v>11</v>
@@ -8001,7 +7991,7 @@
         <v>98</v>
       </c>
       <c r="I192" s="8" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="J192" s="4" t="s">
         <v>11</v>
@@ -8027,7 +8017,7 @@
         <v>98</v>
       </c>
       <c r="I193" s="8" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="J193" s="4" t="s">
         <v>11</v>
@@ -8053,7 +8043,7 @@
         <v>98</v>
       </c>
       <c r="I194" s="8" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="J194" s="4" t="s">
         <v>11</v>
@@ -8099,7 +8089,7 @@
         <v>98</v>
       </c>
       <c r="I196" s="8" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="J196" s="4" t="s">
         <v>11</v>
@@ -8125,7 +8115,7 @@
         <v>98</v>
       </c>
       <c r="I197" s="8" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="J197" s="4" t="s">
         <v>11</v>
@@ -8151,7 +8141,7 @@
         <v>98</v>
       </c>
       <c r="I198" s="8" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="J198" s="4" t="s">
         <v>11</v>
@@ -8177,7 +8167,7 @@
         <v>98</v>
       </c>
       <c r="I199" s="8" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="J199" s="4" t="s">
         <v>11</v>
@@ -8203,7 +8193,7 @@
         <v>98</v>
       </c>
       <c r="I200" s="8" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="J200" s="4" t="s">
         <v>11</v>
@@ -8229,7 +8219,7 @@
         <v>98</v>
       </c>
       <c r="I201" s="8" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="J201" s="4" t="s">
         <v>11</v>
@@ -8255,7 +8245,7 @@
         <v>98</v>
       </c>
       <c r="I202" s="8" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="J202" s="4" t="s">
         <v>11</v>
@@ -8281,7 +8271,7 @@
         <v>98</v>
       </c>
       <c r="I203" s="8" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="J203" s="4" t="s">
         <v>11</v>
@@ -8307,7 +8297,7 @@
         <v>98</v>
       </c>
       <c r="I204" s="8" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="J204" s="4" t="s">
         <v>11</v>
@@ -8333,7 +8323,7 @@
         <v>98</v>
       </c>
       <c r="I205" s="8" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="J205" s="4" t="s">
         <v>11</v>
@@ -8359,7 +8349,7 @@
         <v>98</v>
       </c>
       <c r="I206" s="8" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="J206" s="4" t="s">
         <v>11</v>
@@ -8385,7 +8375,7 @@
         <v>98</v>
       </c>
       <c r="I207" s="8" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="J207" s="4" t="s">
         <v>11</v>
@@ -8411,7 +8401,7 @@
         <v>98</v>
       </c>
       <c r="I208" s="8" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="J208" s="4" t="s">
         <v>11</v>
@@ -8437,7 +8427,7 @@
         <v>98</v>
       </c>
       <c r="I209" s="8" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="J209" s="4" t="s">
         <v>11</v>
@@ -8463,7 +8453,7 @@
         <v>98</v>
       </c>
       <c r="I210" s="8" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="J210" s="4" t="s">
         <v>11</v>
@@ -8489,7 +8479,7 @@
         <v>98</v>
       </c>
       <c r="I211" s="8" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="J211" s="4" t="s">
         <v>11</v>
@@ -8886,7 +8876,7 @@
         <v>98</v>
       </c>
       <c r="I228" s="8" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="J228" s="4" t="s">
         <v>11</v>
@@ -8912,7 +8902,7 @@
         <v>98</v>
       </c>
       <c r="I229" s="8" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="J229" s="4" t="s">
         <v>11</v>
@@ -10269,12 +10259,6 @@
       <c r="K284" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L284" s="8" t="s">
-        <v>966</v>
-      </c>
-      <c r="M284" s="8" t="s">
-        <v>966</v>
-      </c>
     </row>
     <row r="285" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C285" s="11" t="s">
@@ -10475,7 +10459,7 @@
         <v>98</v>
       </c>
       <c r="I292" s="8" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="J292" s="4" t="s">
         <v>11</v>
@@ -10761,7 +10745,7 @@
         <v>98</v>
       </c>
       <c r="I303" s="8" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="J303" s="4" t="s">
         <v>11</v>
@@ -10787,7 +10771,7 @@
         <v>98</v>
       </c>
       <c r="I304" s="8" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="J304" s="4" t="s">
         <v>11</v>
@@ -11728,7 +11712,7 @@
         <v>14</v>
       </c>
       <c r="I353" s="8" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="J353" s="4" t="s">
         <v>11</v>
@@ -14836,7 +14820,7 @@
         <v>14</v>
       </c>
       <c r="I509" s="8" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="J509" s="4" t="s">
         <v>11</v>
@@ -14862,7 +14846,7 @@
         <v>14</v>
       </c>
       <c r="I510" s="8" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="J510" s="4" t="s">
         <v>11</v>
@@ -14888,7 +14872,7 @@
         <v>14</v>
       </c>
       <c r="I511" s="8" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="J511" s="4" t="s">
         <v>11</v>
@@ -14914,7 +14898,7 @@
         <v>14</v>
       </c>
       <c r="I512" s="8" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="J512" s="4" t="s">
         <v>11</v>
@@ -14940,7 +14924,7 @@
         <v>14</v>
       </c>
       <c r="I513" s="8" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="J513" s="4" t="s">
         <v>11</v>
@@ -14966,7 +14950,7 @@
         <v>14</v>
       </c>
       <c r="I514" s="8" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="J514" s="4" t="s">
         <v>11</v>
@@ -14992,7 +14976,7 @@
         <v>14</v>
       </c>
       <c r="I515" s="8" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="J515" s="4" t="s">
         <v>11</v>
@@ -15018,7 +15002,7 @@
         <v>14</v>
       </c>
       <c r="I516" s="8" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="J516" s="4" t="s">
         <v>11</v>
@@ -15044,7 +15028,7 @@
         <v>14</v>
       </c>
       <c r="I517" s="8" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="J517" s="4" t="s">
         <v>11</v>
@@ -15070,7 +15054,7 @@
         <v>14</v>
       </c>
       <c r="I518" s="8" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="J518" s="4" t="s">
         <v>11</v>
@@ -15096,7 +15080,7 @@
         <v>14</v>
       </c>
       <c r="I519" s="8" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="J519" s="4" t="s">
         <v>11</v>
@@ -15122,7 +15106,7 @@
         <v>14</v>
       </c>
       <c r="I520" s="8" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="J520" s="4" t="s">
         <v>11</v>
@@ -15148,7 +15132,7 @@
         <v>14</v>
       </c>
       <c r="I521" s="8" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="J521" s="4" t="s">
         <v>11</v>
@@ -15174,7 +15158,7 @@
         <v>14</v>
       </c>
       <c r="I522" s="8" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="J522" s="4" t="s">
         <v>11</v>
@@ -15200,7 +15184,7 @@
         <v>14</v>
       </c>
       <c r="I523" s="8" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="J523" s="4" t="s">
         <v>11</v>
@@ -15226,7 +15210,7 @@
         <v>14</v>
       </c>
       <c r="I524" s="8" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="J524" s="4" t="s">
         <v>11</v>
@@ -15252,7 +15236,7 @@
         <v>14</v>
       </c>
       <c r="I525" s="8" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="J525" s="4" t="s">
         <v>11</v>
@@ -15278,7 +15262,7 @@
         <v>14</v>
       </c>
       <c r="I526" s="8" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="J526" s="4" t="s">
         <v>11</v>
@@ -15304,7 +15288,7 @@
         <v>14</v>
       </c>
       <c r="I527" s="8" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="J527" s="4" t="s">
         <v>11</v>
@@ -15330,7 +15314,7 @@
         <v>14</v>
       </c>
       <c r="I528" s="8" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="J528" s="4" t="s">
         <v>11</v>
@@ -15356,7 +15340,7 @@
         <v>14</v>
       </c>
       <c r="I529" s="8" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="J529" s="4" t="s">
         <v>11</v>
@@ -15382,7 +15366,7 @@
         <v>14</v>
       </c>
       <c r="I530" s="8" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="J530" s="4" t="s">
         <v>11</v>
@@ -15408,7 +15392,7 @@
         <v>14</v>
       </c>
       <c r="I531" s="8" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="J531" s="4" t="s">
         <v>11</v>
@@ -15434,7 +15418,7 @@
         <v>14</v>
       </c>
       <c r="I532" s="8" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="J532" s="4" t="s">
         <v>11</v>
@@ -15460,7 +15444,7 @@
         <v>14</v>
       </c>
       <c r="I533" s="8" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="J533" s="4" t="s">
         <v>11</v>
@@ -15486,7 +15470,7 @@
         <v>14</v>
       </c>
       <c r="I534" s="8" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="J534" s="4" t="s">
         <v>11</v>
@@ -15512,7 +15496,7 @@
         <v>14</v>
       </c>
       <c r="I535" s="8" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="J535" s="4" t="s">
         <v>11</v>
@@ -15538,7 +15522,7 @@
         <v>14</v>
       </c>
       <c r="I536" s="8" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="J536" s="4" t="s">
         <v>11</v>
@@ -15564,7 +15548,7 @@
         <v>14</v>
       </c>
       <c r="I537" s="8" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="J537" s="4" t="s">
         <v>11</v>
@@ -15590,7 +15574,7 @@
         <v>14</v>
       </c>
       <c r="I538" s="8" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="J538" s="4" t="s">
         <v>11</v>
@@ -15616,7 +15600,7 @@
         <v>14</v>
       </c>
       <c r="I539" s="8" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="J539" s="4" t="s">
         <v>11</v>
@@ -15642,7 +15626,7 @@
         <v>14</v>
       </c>
       <c r="I540" s="8" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="J540" s="4" t="s">
         <v>11</v>
@@ -15668,7 +15652,7 @@
         <v>14</v>
       </c>
       <c r="I541" s="8" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="J541" s="4" t="s">
         <v>11</v>
@@ -16813,7 +16797,7 @@
         <v>98</v>
       </c>
       <c r="I602" s="8" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="J602" s="4" t="s">
         <v>11</v>
@@ -19628,7 +19612,7 @@
         <v>14</v>
       </c>
       <c r="I712" s="8" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="J712" s="4" t="s">
         <v>11</v>
@@ -19914,7 +19898,7 @@
         <v>474</v>
       </c>
       <c r="I723" s="9" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="J723" s="4" t="s">
         <v>11</v>
@@ -19940,7 +19924,7 @@
         <v>474</v>
       </c>
       <c r="I724" s="8" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="J724" s="4" t="s">
         <v>11</v>
@@ -19966,7 +19950,7 @@
         <v>474</v>
       </c>
       <c r="I725" s="8" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="J725" s="4" t="s">
         <v>11</v>
@@ -20148,7 +20132,7 @@
         <v>474</v>
       </c>
       <c r="I732" s="8" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="J732" s="4" t="s">
         <v>11</v>
@@ -20174,7 +20158,7 @@
         <v>474</v>
       </c>
       <c r="I733" s="8" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="J733" s="4" t="s">
         <v>11</v>
@@ -20200,7 +20184,7 @@
         <v>474</v>
       </c>
       <c r="I734" s="8" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="J734" s="4" t="s">
         <v>11</v>
@@ -20226,7 +20210,7 @@
         <v>474</v>
       </c>
       <c r="I735" s="8" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="J735" s="4" t="s">
         <v>11</v>
@@ -20252,7 +20236,7 @@
         <v>474</v>
       </c>
       <c r="I736" s="8" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="J736" s="4" t="s">
         <v>11</v>
@@ -20304,7 +20288,7 @@
         <v>474</v>
       </c>
       <c r="I738" s="8" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="J738" s="4" t="s">
         <v>11</v>
@@ -20356,7 +20340,7 @@
         <v>14</v>
       </c>
       <c r="I740" s="8" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="J740" s="4" t="s">
         <v>11</v>
@@ -20665,7 +20649,7 @@
         <v>14</v>
       </c>
       <c r="I752" s="8" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="J752" s="4" t="s">
         <v>11</v>
@@ -20694,7 +20678,7 @@
         <v>14</v>
       </c>
       <c r="I753" s="8" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="J753" s="4" t="s">
         <v>11</v>
@@ -20723,7 +20707,7 @@
         <v>14</v>
       </c>
       <c r="I754" s="8" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="J754" s="4" t="s">
         <v>11</v>
@@ -20830,7 +20814,7 @@
         <v>14</v>
       </c>
       <c r="I758" s="8" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="J758" s="4" t="s">
         <v>11</v>
@@ -20885,7 +20869,7 @@
         <v>14</v>
       </c>
       <c r="I760" s="8" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="J760" s="4" t="s">
         <v>11</v>
@@ -20957,7 +20941,7 @@
         <v>14</v>
       </c>
       <c r="I763" s="8" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="J763" s="4" t="s">
         <v>11</v>
@@ -22269,7 +22253,7 @@
         <v>490</v>
       </c>
       <c r="I822" s="8" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="J822" s="4" t="s">
         <v>11</v>

--- a/data/combined data/combined data - 1 cleaning/cleaning step 2 - career/2.3 joborglink/joborglink_6_1_inorgtree_right_tocode_1_jeongsu.xlsx
+++ b/data/combined data/combined data - 1 cleaning/cleaning step 2 - career/2.3 joborglink/joborglink_6_1_inorgtree_right_tocode_1_jeongsu.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seoul\Dropbox\00 technical\github\nkelites\data\combined data\combined data - 1 cleaning\cleaning step 2 - career\2.3 joborglink\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B334043E-B69B-4A24-B466-04BB075AD923}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF745AB3-1482-4850-8E6D-B72EB5D2FC05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4985" uniqueCount="1071">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4985" uniqueCount="1072">
   <si>
     <t>OrgString</t>
   </si>
@@ -3254,6 +3254,9 @@
   </si>
   <si>
     <t>_merged</t>
+  </si>
+  <si>
+    <t>작전총국_제3처_제2군단_제8사단_제81연대</t>
   </si>
 </sst>
 </file>
@@ -3671,10 +3674,10 @@
   <dimension ref="A1:N844"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C147" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L282" sqref="L282"/>
+      <selection pane="bottomRight" activeCell="I155" sqref="I155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12078,7 +12081,7 @@
         <v>14</v>
       </c>
       <c r="I365" s="8" t="s">
-        <v>939</v>
+        <v>1071</v>
       </c>
       <c r="J365" s="4" t="s">
         <v>14</v>

--- a/data/combined data/combined data - 1 cleaning/cleaning step 2 - career/2.3 joborglink/joborglink_6_1_inorgtree_right_tocode_1_jeongsu.xlsx
+++ b/data/combined data/combined data - 1 cleaning/cleaning step 2 - career/2.3 joborglink/joborglink_6_1_inorgtree_right_tocode_1_jeongsu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seoul\Dropbox\00 technical\github\nkelites\data\combined data\combined data - 1 cleaning\cleaning step 2 - career\2.3 joborglink\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF745AB3-1482-4850-8E6D-B72EB5D2FC05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE21198B-A492-4D7C-AE1C-85D586A4A3B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3674,10 +3674,10 @@
   <dimension ref="A1:N844"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C147" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C284" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I155" sqref="I155"/>
+      <selection pane="bottomRight" activeCell="G295" sqref="G295"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
